--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="22056" windowHeight="9888"/>
   </bookViews>
   <sheets>
     <sheet name="test.xlsx" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,21 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辣椒水的发生1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辣椒水的发生2</t>
@@ -88,26 +82,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +120,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -430,13 +428,12 @@
   <dimension ref="A3:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
-    <col min="5" max="5" width="15.296875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -456,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -466,14 +463,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1.99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -483,14 +480,14 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -500,14 +497,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -517,14 +514,14 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2.02</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -534,14 +531,14 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -551,14 +548,14 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -568,14 +565,14 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -585,14 +582,14 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2.06</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
@@ -602,14 +599,14 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
@@ -619,14 +616,14 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2.08</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>11</v>
       </c>
@@ -636,14 +633,14 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2.09</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.4">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
@@ -653,14 +650,14 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>13</v>
       </c>
@@ -670,14 +667,14 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2.11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -687,14 +684,14 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>2.12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.4">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
@@ -704,17 +701,16 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>2.13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -724,7 +720,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
